--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="715" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1690" uniqueCount="18">
   <si>
     <t>Site</t>
   </si>
@@ -118,11 +118,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.76171875" customWidth="true"/>
-    <col min="2" max="2" width="8.87890625" customWidth="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true"/>
-    <col min="4" max="4" width="11.64453125" customWidth="true"/>
-    <col min="5" max="5" width="18.64453125" customWidth="true"/>
+    <col min="1" max="1" width="10.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.5703125" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="21" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
